--- a/bimetallics/cr2_morokuma/20__3d4s_2p2s3p3s_3d4s/data.xlsx
+++ b/bimetallics/cr2_morokuma/20__3d4s_2p2s3p3s_3d4s/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nmayhall/code/FermiCG-data/bimetallics/cr2_morokuma/20__3d4s_2p2s3p3s_3d4s/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F009E8DF-4A7E-FC41-B649-B49110C3C205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF97F7F0-BCD1-744A-AD16-B72BFB11FC11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="1" xr2:uid="{8691D2F0-45BE-1B4C-868C-9853C0E7F82C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -118,9 +118,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="0E+00"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -166,7 +167,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -178,6 +179,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -774,7 +776,7 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>59.542369746850071</c:v>
+                  <c:v>60.538784566842367</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -875,7 +877,7 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>59.542369746850071</c:v>
+                  <c:v>60.538784566842367</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -896,7 +898,7 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>-59.542369746850071</c:v>
+                  <c:v>-60.538784566842367</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -2779,7 +2781,7 @@
         <v>-73.752254665317864</v>
       </c>
       <c r="M6" s="2">
-        <f t="shared" ref="L6:M6" si="4">G30</f>
+        <f t="shared" ref="M6" si="4">G30</f>
         <v>-74.675145485194335</v>
       </c>
       <c r="O6">
@@ -2821,7 +2823,7 @@
         <v>-69.668929175494767</v>
       </c>
       <c r="M7" s="2">
-        <f t="shared" ref="L7:M7" si="8">G11</f>
+        <f t="shared" ref="M7" si="8">G11</f>
         <v>-72.34981177897933</v>
       </c>
       <c r="O7">
@@ -2935,7 +2937,7 @@
         <v>-2.6495999999553987E-4</v>
       </c>
       <c r="M12">
-        <f t="shared" ref="L12:M12" si="15">G25-G6</f>
+        <f t="shared" ref="M12" si="15">G25-G6</f>
         <v>-1.3083000000335687E-4</v>
       </c>
     </row>
@@ -3325,7 +3327,7 @@
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="179" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:D10"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3357,16 +3359,16 @@
       <c r="C2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="7">
         <v>0.01</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="7">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="7">
         <v>1E-4</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="7">
         <v>5.0000000000000002E-5</v>
       </c>
     </row>
@@ -3374,16 +3376,16 @@
       <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="7">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="7">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="7">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="7">
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
@@ -3391,17 +3393,22 @@
       <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="7">
         <v>1E-3</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="E4" s="7">
+        <v>1E-4</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>16</v>
       </c>
+      <c r="D5">
+        <v>5252</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
@@ -3418,7 +3425,7 @@
       </c>
       <c r="J6" s="2">
         <f t="shared" ref="J6:L6" si="0">D31-D12</f>
-        <v>59.542369746850071</v>
+        <v>60.538784566842367</v>
       </c>
       <c r="K6" s="2">
         <f t="shared" si="0"/>
@@ -3445,7 +3452,7 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>-107.87058432000001</v>
+        <v>-107.87235130000001</v>
       </c>
       <c r="I7" t="s">
         <v>13</v>
@@ -3478,14 +3485,14 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>-107.87004173</v>
+        <v>-107.87179963</v>
       </c>
       <c r="I8" t="s">
         <v>12</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" ref="J8:M8" si="2">D12</f>
-        <v>-59.542369746850071</v>
+        <v>-60.538784566842367</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" si="2"/>
@@ -3511,7 +3518,7 @@
         <v>2</v>
       </c>
       <c r="D9">
-        <v>-107.86907477</v>
+        <v>-107.87037998</v>
       </c>
       <c r="O9" t="e">
         <v>#NUM!</v>
@@ -3525,10 +3532,10 @@
         <v>3</v>
       </c>
       <c r="D10">
-        <v>-107.86763791</v>
+        <v>-107.8683654</v>
       </c>
       <c r="O10">
-        <v>2658.9703463029546</v>
+        <v>2748.7083276229132</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -3540,7 +3547,7 @@
       </c>
       <c r="D12" s="3">
         <f>$A$2*(D7-D8)/$C8/2</f>
-        <v>-59.542369746850071</v>
+        <v>-60.538784566842367</v>
       </c>
       <c r="E12" s="3">
         <f t="shared" ref="E12:G14" si="3">$A$2*(E7-E8)/$C8/2</f>
@@ -3561,7 +3568,7 @@
       </c>
       <c r="D13" s="3">
         <f>$A$2*(D8-D9)/$C9/2</f>
-        <v>-53.055797056173503</v>
+        <v>-77.894289620014803</v>
       </c>
       <c r="E13" s="3">
         <f t="shared" si="3"/>
@@ -3581,7 +3588,7 @@
       </c>
       <c r="J13">
         <f t="shared" ref="J13:M16" si="4">D26-D7</f>
-        <v>107.87058432000001</v>
+        <v>107.87235130000001</v>
       </c>
       <c r="K13">
         <f t="shared" si="4"/>
@@ -3602,7 +3609,7 @@
       </c>
       <c r="D14" s="3">
         <f>$A$2*(D9-D10)/$C10/2</f>
-        <v>-52.559052810238512</v>
+        <v>-73.691533350672145</v>
       </c>
       <c r="E14" s="3">
         <f t="shared" si="3"/>
@@ -3622,7 +3629,7 @@
       </c>
       <c r="J14">
         <f t="shared" si="4"/>
-        <v>107.87004173</v>
+        <v>107.87179963</v>
       </c>
       <c r="K14">
         <f t="shared" si="4"/>
@@ -3644,7 +3651,7 @@
       </c>
       <c r="J15">
         <f t="shared" si="4"/>
-        <v>107.86907477</v>
+        <v>107.87037998</v>
       </c>
       <c r="K15">
         <f t="shared" si="4"/>
@@ -3678,7 +3685,7 @@
       </c>
       <c r="J16">
         <f t="shared" si="4"/>
-        <v>107.86763791</v>
+        <v>107.8683654</v>
       </c>
       <c r="K16">
         <f t="shared" si="4"/>
@@ -3695,7 +3702,7 @@
     </row>
     <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="D17" s="4">
-        <v>1.054596E-2</v>
+        <v>2.4293849999999999E-2</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -3706,7 +3713,7 @@
     </row>
     <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="D18" s="4">
-        <v>2.0055540299999999</v>
+        <v>2.0029321800000002</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -3717,7 +3724,7 @@
     </row>
     <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="D19" s="4">
-        <v>5.9903994000000003</v>
+        <v>5.9760541500000004</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -3732,7 +3739,7 @@
     </row>
     <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="D20" s="4">
-        <v>11.99486476</v>
+        <v>11.99689223</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
